--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="261">
   <si>
     <t>name</t>
   </si>
@@ -526,12 +526,288 @@
   </si>
   <si>
     <t>Методические указания к решению задач для студентов 1 курса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Химия </t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению лабораторных работ для студентов 1 курса</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению самостоятельных работ для студентов 4 курса</t>
+  </si>
+  <si>
+    <t>Электротехника и электроника</t>
+  </si>
+  <si>
+    <t>Фолиев В. С.</t>
+  </si>
+  <si>
+    <t>Методические рекомендации для студентов технических специальностей</t>
+  </si>
+  <si>
+    <t>Семенова Е. Р.</t>
+  </si>
+  <si>
+    <t>Анализ финансово-хозяйственной деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методические указания к выполнению курсвой работы </t>
+  </si>
+  <si>
+    <t>Бухгалтерский учет</t>
+  </si>
+  <si>
+    <t>Методические указания по преддипломной практике</t>
+  </si>
+  <si>
+    <t>080114 Экономика и бухгалтерский учет</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
+  </si>
+  <si>
+    <t>Кузьмина Т. М., Абдул С. Н., Кушелева Т. Е.</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению дипломного проетка</t>
+  </si>
+  <si>
+    <t>Макетирование</t>
+  </si>
+  <si>
+    <t>Монтаж и техническая эксплуатация промышленного оборудования</t>
+  </si>
+  <si>
+    <t>Методические указания квыполнению курсовой работы</t>
+  </si>
+  <si>
+    <t>МДК 02.01 Выполнение художественно-конструкторских проектов в материале</t>
+  </si>
+  <si>
+    <t>Бойко А. В.</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению курсовой работы</t>
+  </si>
+  <si>
+    <t>МДК 04.01 Менеджмент производственного подразделения</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению курсового проекта</t>
+  </si>
+  <si>
+    <t>МДК 05.05 Налоговое планирование</t>
+  </si>
+  <si>
+    <t>Лебедева Н. А.</t>
+  </si>
+  <si>
+    <t>МДК 03.01 Основы управления производством изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>МДК Печатные процессы</t>
+  </si>
+  <si>
+    <t>МДК Технология ведения бухгалтерской отчетности</t>
+  </si>
+  <si>
+    <t>Попович И. А.</t>
+  </si>
+  <si>
+    <t>МДК 01.01.01 Технология производства изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>Звягинцева Н. В., Терехова Л. В.</t>
+  </si>
+  <si>
+    <t>Основы экономики отрасли и правового обеспечения профессиональной деятельности</t>
+  </si>
+  <si>
+    <t>15.02.01 Монтаж и техническая эксплуатация промышленного оборудования (по отраслям)</t>
+  </si>
+  <si>
+    <t>Полиграфическое производство</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению дипломного проетка "Технологический процесс изготовления конкретной полиграфической продукции на базе типографии"</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению дипломного проекта "Проект типографии, выпускающей конкретную полиграфическую продукцию"</t>
+  </si>
+  <si>
+    <t>ПМ Корректура. Технология комплексной работы с текстом</t>
+  </si>
+  <si>
+    <t>ПМ 03 Управление организацией, ее структурным подразделением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методические указания к выполнению курсового проекта </t>
+  </si>
+  <si>
+    <t>Методические указания по выполнению курсового проекта</t>
+  </si>
+  <si>
+    <t>ПМ 02 Конструирование и оформление изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>Звягинцева Н. В., Счеславский Д. А.</t>
+  </si>
+  <si>
+    <t>ПМ 01 Организация и контроль технологических процессов по производству изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>Звягинцева Н. В., Терехова Л. В., Семенова Е. Р.</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению дипломного проекта</t>
+  </si>
+  <si>
+    <t>ПМ 01 Организация и проведение монтажа и ремонта промышленного оборудования</t>
+  </si>
+  <si>
+    <t>Суслов М. В., Токмаков Б. В.</t>
+  </si>
+  <si>
+    <t>ПМ 03 Редакторская подготовка изданий. ПМ 04 Управление и организация деятельности производственного подразделения</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению курсовой работы и дипломного проекта</t>
+  </si>
+  <si>
+    <t>ПМ Художественно-техническое редактирование</t>
+  </si>
+  <si>
+    <t>Антонова Е. В., Минаева О. Е.</t>
+  </si>
+  <si>
+    <t>Редакторская подготовка изданий</t>
+  </si>
+  <si>
+    <t>Антонова Е. В., Погодина О. С., Семенова Е. Р.</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению дипломных проектов для студентов 5 курса заочного отделения</t>
+  </si>
+  <si>
+    <t>Реклама</t>
+  </si>
+  <si>
+    <t>Брянкина С. Ю., Семенова Е. Р.</t>
+  </si>
+  <si>
+    <t>Экономика и бухгалтерский учет</t>
+  </si>
+  <si>
+    <t>Методические указания к выполнению дипломной работы</t>
+  </si>
+  <si>
+    <t>Художественно-техническое редактирование изданий</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рабочая тетрадь по общеобразовательной лексике </t>
+  </si>
+  <si>
+    <t>29.02.06 Полиграфическое производство, 29.02.07 Производство изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>Допечатное оборудование</t>
+  </si>
+  <si>
+    <t>Корначева Л. И.</t>
+  </si>
+  <si>
+    <t>Рабочая тетрадь</t>
+  </si>
+  <si>
+    <t>Документационное обеспечение управления</t>
+  </si>
+  <si>
+    <t>Практикум с практическими заданиями</t>
+  </si>
+  <si>
+    <t>Метрология, стандартизация и сертификация</t>
+  </si>
+  <si>
+    <t>МДК 02.01 Основы конструирования и дизайна изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>МДК 03.01 Основы управления производством полиграфической продукции</t>
+  </si>
+  <si>
+    <t>Практикум</t>
+  </si>
+  <si>
+    <t>Немецкий язык</t>
+  </si>
+  <si>
+    <t>Рабочая тетрадь по общеобразовательной лексике</t>
+  </si>
+  <si>
+    <t>Оборудование полиграфического производства</t>
+  </si>
+  <si>
+    <t>Основы бухгалтерского учета</t>
+  </si>
+  <si>
+    <t>Технические специальности</t>
+  </si>
+  <si>
+    <t>Проектирование рекламного продукта</t>
+  </si>
+  <si>
+    <t>ПМ Корректура. Корректирование печатных и электронных изданий. Часть 1</t>
+  </si>
+  <si>
+    <t>Практикум длявыполнения практических работ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПМ 01 Корректура. Основы редактирования </t>
+  </si>
+  <si>
+    <t>ПМ Корректура, ПМ Техническое редактирование</t>
+  </si>
+  <si>
+    <t>Практикум по учебной практике для студентов 2 курса</t>
+  </si>
+  <si>
+    <t>ПМ 01 Организация и контроль технологическихпроцессов по производству изделий из бумаги и картона</t>
+  </si>
+  <si>
+    <t>Макешин В. В., Звягинцева Н. В., Терехова Л. В.</t>
+  </si>
+  <si>
+    <t>ПМ 01 Технологический контроль в полиграфическом производстве, контроль качества материалов, полуфабрикатов и готовой продукции</t>
+  </si>
+  <si>
+    <t>Севалкина О. Г.</t>
+  </si>
+  <si>
+    <t>ПМ Художественно-техническое редактирование. Техническое редактирование</t>
+  </si>
+  <si>
+    <t>Михайлова Н. И., Антонова Е. В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст по учебной практике </t>
+  </si>
+  <si>
+    <t>ПМ Художественно-техническое редактирование. Техническое редактирование. Часть 1</t>
+  </si>
+  <si>
+    <t>Михайлова Н. И.</t>
+  </si>
+  <si>
+    <t>ПМ Художественно-техническое редактирование. Техническое редактирование. Часть 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,6 +880,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,29 +1164,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="30.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="4"/>
+    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -966,7 +1245,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1073,7 +1352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1430,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1177,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1203,7 +1482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1229,7 +1508,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1281,7 +1560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1307,7 +1586,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1333,7 +1612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1359,7 +1638,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -1385,7 +1664,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -1437,7 +1716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1463,7 +1742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1489,7 +1768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1515,7 +1794,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -1541,7 +1820,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
@@ -1567,7 +1846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1590,7 +1869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
@@ -1616,7 +1895,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1642,7 +1921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -1668,7 +1947,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
@@ -1693,7 +1972,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1718,7 +1997,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
@@ -1743,7 +2022,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -1766,7 +2045,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -1791,7 +2070,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1811,7 +2090,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1831,7 +2110,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -1851,7 +2130,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -1874,7 +2153,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -1894,7 +2173,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -1917,7 +2196,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
@@ -1940,7 +2219,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -1963,7 +2242,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -1986,7 +2265,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -2006,7 +2285,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
@@ -2026,7 +2305,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
@@ -2049,7 +2328,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>111</v>
       </c>
@@ -2069,7 +2348,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>112</v>
       </c>
@@ -2089,7 +2368,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>114</v>
       </c>
@@ -2109,7 +2388,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -2129,7 +2408,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>117</v>
       </c>
@@ -2149,7 +2428,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2169,7 +2448,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -2192,7 +2471,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -2215,7 +2494,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -2235,7 +2514,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>126</v>
       </c>
@@ -2255,7 +2534,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -2275,7 +2554,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>131</v>
       </c>
@@ -2298,7 +2577,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>134</v>
       </c>
@@ -2321,7 +2600,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>135</v>
       </c>
@@ -2341,7 +2620,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
@@ -2364,7 +2643,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>140</v>
       </c>
@@ -2384,7 +2663,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -2404,7 +2683,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>144</v>
       </c>
@@ -2424,7 +2703,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>146</v>
       </c>
@@ -2447,7 +2726,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -2467,7 +2746,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>148</v>
       </c>
@@ -2490,7 +2769,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -2513,7 +2792,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>155</v>
       </c>
@@ -2533,7 +2812,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>157</v>
       </c>
@@ -2553,7 +2832,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>159</v>
       </c>
@@ -2573,7 +2852,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -2596,7 +2875,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>162</v>
       </c>
@@ -2619,7 +2898,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>162</v>
       </c>
@@ -2639,7 +2918,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>162</v>
       </c>
@@ -2662,7 +2941,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -2682,7 +2961,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
@@ -2703,6 +2982,1185 @@
       </c>
       <c r="G77" s="4">
         <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="4">
+        <v>80</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="4">
+        <v>60</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="4">
+        <v>50</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="4">
+        <v>100</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="4">
+        <v>80</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="4">
+        <v>80</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="4">
+        <v>100</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="4">
+        <v>80</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" s="4">
+        <v>250</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="4">
+        <v>80</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="4">
+        <v>80</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" s="4">
+        <v>60</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="4">
+        <v>80</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="4">
+        <v>80</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="4">
+        <v>80</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="4">
+        <v>150</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="4">
+        <v>80</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="4">
+        <v>80</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="4">
+        <v>150</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="4">
+        <v>200</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="4">
+        <v>50</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="4">
+        <v>60</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="4">
+        <v>100</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" s="4">
+        <v>80</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="4">
+        <v>120</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="4">
+        <v>180</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" s="4">
+        <v>80</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105" s="4">
+        <v>60</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" s="4">
+        <v>80</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="4">
+        <v>80</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="4">
+        <v>80</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" s="4">
+        <v>80</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" s="4">
+        <v>50</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112" s="4">
+        <v>120</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" s="4">
+        <v>100</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="4">
+        <v>80</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="4">
+        <v>100</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="4">
+        <v>70</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E117" s="4">
+        <v>100</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E118" s="4">
+        <v>50</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="4">
+        <v>150</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" s="4">
+        <v>100</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="4">
+        <v>80</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E122" s="4">
+        <v>100</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E123" s="4">
+        <v>150</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" s="4">
+        <v>120</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" s="4">
+        <v>120</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126" s="4">
+        <v>100</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="4">
+        <v>200</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E128" s="4">
+        <v>200</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" s="4">
+        <v>100</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E130" s="4">
+        <v>120</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E131" s="4">
+        <v>120</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="271">
   <si>
     <t>name</t>
   </si>
@@ -802,6 +802,36 @@
   </si>
   <si>
     <t>ПМ Художественно-техническое редактирование. Техническое редактирование. Часть 2</t>
+  </si>
+  <si>
+    <t>Создание Web-сайтов. Часть 2. Язык CSS</t>
+  </si>
+  <si>
+    <t>Филлипова О. С.</t>
+  </si>
+  <si>
+    <t>Система автоматизированной подготовки AutoCAD</t>
+  </si>
+  <si>
+    <t>Кокорева В. Е.</t>
+  </si>
+  <si>
+    <t>Создание Web-сайтов. Часть 1. Язык HTML</t>
+  </si>
+  <si>
+    <t>Дорощенко М. А., Филиппова О. С.</t>
+  </si>
+  <si>
+    <t>Стилистика русского языка</t>
+  </si>
+  <si>
+    <t>Справочно-методические таблицы</t>
+  </si>
+  <si>
+    <t>Стилистика авторского текста</t>
+  </si>
+  <si>
+    <t>Синтаксис</t>
   </si>
 </sst>
 </file>
@@ -1164,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4163,6 +4193,135 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" s="4">
+        <v>100</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E133" s="4">
+        <v>100</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134" s="4">
+        <v>100</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E135" s="4">
+        <v>100</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E136" s="4">
+        <v>60</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E137" s="4">
+        <v>200</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="4">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="274">
   <si>
     <t>name</t>
   </si>
@@ -832,12 +832,21 @@
   </si>
   <si>
     <t>Синтаксис</t>
+  </si>
+  <si>
+    <t>проверено</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Скоро в продаже</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,7 +865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +875,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,6 +928,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,29 +1215,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="4"/>
-    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.7109375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1273,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1300,9 @@
         <v>21</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1300,8 +1327,9 @@
       <c r="I3" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1326,8 +1354,9 @@
       <c r="I4" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1355,8 +1384,9 @@
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1381,8 +1411,9 @@
       <c r="I6" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1407,8 +1438,9 @@
       <c r="I7" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1433,8 +1465,11 @@
       <c r="I8" s="4">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1459,8 +1494,9 @@
       <c r="I9" s="4">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1485,8 +1521,11 @@
       <c r="I10" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1511,8 +1550,11 @@
       <c r="I11" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L11" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1537,8 +1579,9 @@
       <c r="I12" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1563,8 +1606,11 @@
       <c r="I13" s="4">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1589,8 +1635,11 @@
       <c r="I14" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L14" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1615,8 +1664,11 @@
       <c r="I15" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L15" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1641,8 +1693,11 @@
       <c r="I16" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1667,8 +1722,11 @@
       <c r="I17" s="4">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L17" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -1693,8 +1751,9 @@
       <c r="I18" s="4">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1719,8 +1778,9 @@
       <c r="I19" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -1745,8 +1805,11 @@
       <c r="I20" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L20" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1771,8 +1834,9 @@
       <c r="I21" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1797,8 +1861,9 @@
       <c r="I22" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1823,8 +1888,11 @@
       <c r="I23" s="4">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L23" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -1849,8 +1917,9 @@
       <c r="I24" s="4">
         <v>320</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
@@ -1875,8 +1944,9 @@
       <c r="I25" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1898,8 +1968,11 @@
       <c r="I26" s="4">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
@@ -1924,8 +1997,11 @@
       <c r="I27" s="4">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1950,8 +2026,11 @@
       <c r="I28" s="4">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -1976,8 +2055,11 @@
       <c r="I29" s="4">
         <v>316</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
@@ -2001,8 +2083,11 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L30" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -2026,8 +2111,11 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L31" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
@@ -2051,8 +2139,11 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L32" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2074,8 +2165,11 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L33" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2099,8 +2193,9 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -2119,8 +2214,9 @@
       <c r="G35" s="4">
         <v>2015</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -2140,7 +2236,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2160,7 +2256,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -2183,7 +2279,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +2299,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -2226,7 +2322,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
@@ -2249,7 +2345,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -2272,7 +2368,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -2295,7 +2391,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -2315,7 +2411,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
@@ -2335,7 +2431,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
@@ -2358,7 +2454,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>111</v>
       </c>
@@ -2378,7 +2474,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>112</v>
       </c>
@@ -2398,7 +2494,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>114</v>
       </c>
@@ -2418,7 +2514,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -2438,7 +2534,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>117</v>
       </c>
@@ -2458,7 +2554,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2574,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -2501,7 +2597,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -2524,7 +2620,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -2544,7 +2640,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>126</v>
       </c>
@@ -2564,7 +2660,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -2584,7 +2680,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>131</v>
       </c>
@@ -2607,7 +2703,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>134</v>
       </c>
@@ -2630,7 +2726,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>135</v>
       </c>
@@ -2650,7 +2746,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
@@ -2673,7 +2769,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>140</v>
       </c>
@@ -2693,7 +2789,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -2713,7 +2809,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>144</v>
       </c>
@@ -2733,7 +2829,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>146</v>
       </c>
@@ -2756,7 +2852,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -2776,7 +2872,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>148</v>
       </c>
@@ -2799,7 +2895,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -2822,7 +2918,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>155</v>
       </c>
@@ -2842,7 +2938,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>157</v>
       </c>
@@ -2862,7 +2958,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>159</v>
       </c>
@@ -2882,7 +2978,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -2905,7 +3001,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>162</v>
       </c>
@@ -2928,7 +3024,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>162</v>
       </c>
@@ -2948,7 +3044,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>162</v>
       </c>
@@ -2971,7 +3067,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -2991,7 +3087,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
@@ -3014,7 +3110,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>169</v>
       </c>
@@ -3037,7 +3133,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>71</v>
       </c>
@@ -3060,7 +3156,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>71</v>
       </c>
@@ -3083,7 +3179,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>172</v>
       </c>
@@ -3103,7 +3199,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>176</v>
       </c>
@@ -3126,7 +3222,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>178</v>
       </c>
@@ -3149,7 +3245,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>181</v>
       </c>
@@ -3172,7 +3268,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>184</v>
       </c>
@@ -3195,7 +3291,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>185</v>
       </c>
@@ -3212,7 +3308,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>42</v>
       </c>
@@ -3235,7 +3331,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>187</v>
       </c>
@@ -3255,7 +3351,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>190</v>
       </c>
@@ -3275,7 +3371,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
@@ -3298,7 +3394,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>194</v>
       </c>
@@ -3318,7 +3414,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>195</v>
       </c>
@@ -3341,7 +3437,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>196</v>
       </c>
@@ -3364,7 +3460,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>198</v>
       </c>
@@ -3384,7 +3480,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>200</v>
       </c>
@@ -3407,7 +3503,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>202</v>
       </c>
@@ -3424,7 +3520,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>202</v>
       </c>
@@ -3441,7 +3537,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -3464,7 +3560,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>206</v>
       </c>
@@ -3487,7 +3583,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>142</v>
       </c>
@@ -3507,7 +3603,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>209</v>
       </c>
@@ -3527,7 +3623,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>211</v>
       </c>
@@ -3547,7 +3643,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>214</v>
       </c>
@@ -3567,7 +3663,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>216</v>
       </c>
@@ -3587,7 +3683,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>218</v>
       </c>
@@ -3610,7 +3706,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>220</v>
       </c>
@@ -3633,7 +3729,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>223</v>
       </c>
@@ -3656,7 +3752,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>225</v>
       </c>
@@ -3679,7 +3775,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>71</v>
       </c>
@@ -3699,7 +3795,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>227</v>
       </c>
@@ -3722,7 +3818,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>73</v>
       </c>
@@ -3745,7 +3841,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>231</v>
       </c>
@@ -3768,7 +3864,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>234</v>
       </c>
@@ -3788,7 +3884,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
@@ -3811,7 +3907,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>83</v>
       </c>
@@ -3834,7 +3930,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>237</v>
       </c>
@@ -3857,7 +3953,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>238</v>
       </c>
@@ -3877,7 +3973,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>240</v>
       </c>
@@ -3900,7 +3996,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>242</v>
       </c>
@@ -3923,7 +4019,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
@@ -3943,7 +4039,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>243</v>
       </c>
@@ -3966,7 +4062,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>48</v>
       </c>
@@ -3989,7 +4085,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>245</v>
       </c>
@@ -4009,7 +4105,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
@@ -4032,7 +4128,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
@@ -4055,7 +4151,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>249</v>
       </c>
@@ -4078,7 +4174,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>251</v>
       </c>
@@ -4101,7 +4197,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>253</v>
       </c>
@@ -4124,7 +4220,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>255</v>
       </c>
@@ -4147,7 +4243,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
@@ -4170,7 +4266,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
@@ -4193,7 +4289,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>261</v>
       </c>
@@ -4213,7 +4309,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>263</v>
       </c>
@@ -4233,7 +4329,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>265</v>
       </c>
@@ -4253,7 +4349,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>267</v>
       </c>
@@ -4276,7 +4372,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>269</v>
       </c>
@@ -4299,7 +4395,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>270</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="274">
   <si>
     <t>name</t>
   </si>
@@ -1218,8 +1218,8 @@
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2214,9 @@
       <c r="G35" s="4">
         <v>2015</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2235,6 +2237,7 @@
       <c r="G36" s="4">
         <v>2018</v>
       </c>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2255,6 +2258,9 @@
       <c r="G37" s="4">
         <v>2014</v>
       </c>
+      <c r="L37" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2278,6 +2284,7 @@
       <c r="G38" s="4">
         <v>2016</v>
       </c>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2298,6 +2305,9 @@
       <c r="G39" s="4">
         <v>2014</v>
       </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -2321,6 +2331,9 @@
       <c r="G40" s="4">
         <v>2015</v>
       </c>
+      <c r="L40" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2344,6 +2357,7 @@
       <c r="G41" s="4">
         <v>2018</v>
       </c>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -2367,6 +2381,7 @@
       <c r="G42" s="4">
         <v>2018</v>
       </c>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2390,6 +2405,9 @@
       <c r="G43" s="4">
         <v>2016</v>
       </c>
+      <c r="L43" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2410,6 +2428,9 @@
       <c r="G44" s="4">
         <v>2014</v>
       </c>
+      <c r="L44" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2430,6 +2451,9 @@
       <c r="G45" s="4">
         <v>2017</v>
       </c>
+      <c r="L45" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -2453,6 +2477,9 @@
       <c r="G46" s="4">
         <v>2018</v>
       </c>
+      <c r="L46" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2473,6 +2500,9 @@
       <c r="G47" s="4">
         <v>2013</v>
       </c>
+      <c r="L47" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -2493,8 +2523,11 @@
       <c r="G48" s="4">
         <v>2014</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="L48" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>114</v>
       </c>
@@ -2513,8 +2546,9 @@
       <c r="G49" s="4">
         <v>2015</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -2533,8 +2567,11 @@
       <c r="G50" s="4">
         <v>2014</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="L50" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>117</v>
       </c>
@@ -2553,8 +2590,11 @@
       <c r="G51" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="L51" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2573,8 +2613,11 @@
       <c r="G52" s="4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="L52" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2639,11 @@
       <c r="G53" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="L53" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -2619,8 +2665,11 @@
       <c r="G54" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="L54" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -2639,8 +2688,9 @@
       <c r="G55" s="4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>126</v>
       </c>
@@ -2660,7 +2710,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -2680,7 +2730,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>131</v>
       </c>
@@ -2703,7 +2753,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>134</v>
       </c>
@@ -2726,7 +2776,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>135</v>
       </c>
@@ -2746,7 +2796,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
@@ -2769,7 +2819,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>140</v>
       </c>
@@ -2789,7 +2839,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -2809,7 +2859,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>144</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="278">
   <si>
     <t>name</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>Скоро в продаже</t>
+  </si>
+  <si>
+    <t>page-proofs_2018</t>
+  </si>
+  <si>
+    <t>Пособие рассчитано на новичков, которые только осваивают компьютерную верстку, начиная с самой простой — книжной, а также на профессиональных пользователей компьютерных программ, которым необходимы краткие рекомендации по оформлению текста.</t>
+  </si>
+  <si>
+    <t>42.02.02, 54.02.01, 42.02.01</t>
+  </si>
+  <si>
+    <t>актуализировано</t>
   </si>
 </sst>
 </file>
@@ -865,7 +877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -934,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,13 +1254,13 @@
     <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="50.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="17.7109375" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,8 +1297,11 @@
       <c r="L1" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1326,7 @@
       <c r="I2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +1353,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1339,24 +1363,34 @@
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="E4" s="4">
         <v>150</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="G4" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
       </c>
       <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1420,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1447,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1474,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1469,7 +1503,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1530,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1525,7 +1559,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1588,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1615,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1610,7 +1644,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1639,7 +1673,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1668,7 +1702,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2709,6 +2743,7 @@
       <c r="G56" s="4">
         <v>2014</v>
       </c>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
